--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45930</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44916</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44997</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45457</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44750</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44596</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45236</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45062</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44252</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44477</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44508</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44237</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44245</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44258</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44571</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44274</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44367</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44552</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44293</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44242</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44428</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44488</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44564</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44866</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44839</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44302</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44505</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44350</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44305</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44245</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44403</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44446</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44446</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44694</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44245</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44258</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44834</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>44382</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44379</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44309</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44368</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44340</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44326</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44821</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44812</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44749</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45443</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45359</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44513</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45217</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44247</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45630</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44599</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44581</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44363</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44944</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44911</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44930</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45356</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45357</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45376</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44634</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44895</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44830</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44655</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45744</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45197</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45151</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45201</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44993</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45800</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44637</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44894</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45124</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45569</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45386</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45839</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44357</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44929</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45198</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>45797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>45895</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>45897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>45735</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44235</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44943</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45558</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45558</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>45071</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45062</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45401</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44608</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45559</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45604</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45917</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45373</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45060</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44516</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44935</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45932</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44356</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44642</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45937</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45181</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45151</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44617</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45940</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45233</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45719</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45645</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>44312</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45937</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>45785</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45091</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45516</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45369</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45076</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44571</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44692</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45880</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45964</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45224</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45418</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45880</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45880</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45202</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>45886</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45952</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45952</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45313</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45645</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44827</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44831</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45980</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44298</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>46020</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>46020</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>44966</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>44433</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32427,7 +32427,7 @@
         <v>46020</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>45103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>45302</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45748</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45313</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45313</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>44377</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44966</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>44300</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45121</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44649</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>45996</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45260</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>45996</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36110,7 +36110,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36167,7 +36167,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36224,7 +36224,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
         <v>45369</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44750</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36623,7 +36623,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>45559</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36913,7 +36913,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45896</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>44834</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37632,7 +37632,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37689,7 +37689,7 @@
         <v>44432</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37974,7 +37974,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38031,7 +38031,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38088,7 +38088,7 @@
         <v>45615</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38259,7 +38259,7 @@
         <v>45359</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38316,7 +38316,7 @@
         <v>44368</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         <v>44488</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>44440</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>46010</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38772,7 +38772,7 @@
         <v>44453</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38886,7 +38886,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>44755</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>45210</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>44953</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>44476</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>44851</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>45365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39761,7 +39761,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39818,7 +39818,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44907</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>45723</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40103,7 +40103,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40160,7 +40160,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>45155</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40388,7 +40388,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40445,7 +40445,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40502,7 +40502,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40559,7 +40559,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40673,7 +40673,7 @@
         <v>45202</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40730,7 +40730,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40787,7 +40787,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40844,7 +40844,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40901,7 +40901,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40958,7 +40958,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41015,7 +41015,7 @@
         <v>45233</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41072,7 +41072,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44887</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41248,7 +41248,7 @@
         <v>45230</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44876</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45151</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45040</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45230</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>44866</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>44943</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41880,7 +41880,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41937,7 +41937,7 @@
         <v>45264</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41994,7 +41994,7 @@
         <v>45195</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         <v>45212</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42108,7 +42108,7 @@
         <v>45540</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42222,7 +42222,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42279,7 +42279,7 @@
         <v>45173</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>44935</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42393,7 +42393,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>44621</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>44371</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42735,7 +42735,7 @@
         <v>45617</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42797,7 +42797,7 @@
         <v>45553</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42854,7 +42854,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42911,7 +42911,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42968,7 +42968,7 @@
         <v>44916</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43201,7 +43201,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43258,7 +43258,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43429,7 +43429,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43486,7 +43486,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>44831</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43942,7 +43942,7 @@
         <v>44340</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43999,7 +43999,7 @@
         <v>44476</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44170,7 +44170,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         <v>45181</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44284,7 +44284,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44620</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>45547</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44903</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>45180</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45643</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44258</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>44552</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45583</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45310</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>44300</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44831</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46284,7 +46284,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46398,7 +46398,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44369</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>44274</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>45198</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>44929</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47087,7 +47087,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47144,7 +47144,7 @@
         <v>45195</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47201,7 +47201,7 @@
         <v>45198</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47258,7 +47258,7 @@
         <v>45750</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47315,7 +47315,7 @@
         <v>45511</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47491,7 +47491,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47548,7 +47548,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47605,7 +47605,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47662,7 +47662,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47719,7 +47719,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47833,7 +47833,7 @@
         <v>44868</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47890,7 +47890,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47947,7 +47947,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48004,7 +48004,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48061,7 +48061,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48118,7 +48118,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>45792</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48232,7 +48232,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48289,7 +48289,7 @@
         <v>45788</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48346,7 +48346,7 @@
         <v>45792</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48460,7 +48460,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         <v>45309</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45477</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>45575</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45930</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44916</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44997</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45457</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44750</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44596</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45236</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45062</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44417</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44252</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44477</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44508</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44237</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44245</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44258</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44571</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44274</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44367</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44552</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44585</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44293</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44242</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44428</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44488</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44564</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44866</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44839</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44302</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44505</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44350</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44305</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44245</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44403</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44446</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44446</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44453</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44694</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44692</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44649</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44853</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44245</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44258</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44834</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>44382</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44379</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44309</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44830</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44368</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44340</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44326</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44343</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44558</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44821</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44812</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44749</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45443</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45359</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44513</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45217</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>44247</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45630</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45054</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44599</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44581</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44363</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44944</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>44911</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44930</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44776</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45356</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45357</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45376</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>44634</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44895</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44830</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44855</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44655</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45744</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45197</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45151</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45201</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44993</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45800</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44637</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44894</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45124</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45569</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45386</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45839</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45811</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44357</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44929</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45198</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>45797</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45251</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>45895</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>45897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>45735</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44235</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44943</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45558</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45558</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>45071</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45062</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44370</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45401</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44875</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44608</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45559</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45604</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45917</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44417</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45373</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45060</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44516</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44935</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45932</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44356</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44642</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45937</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45181</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45151</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44617</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45940</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45233</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44893</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45719</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26464,7 +26464,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26578,7 +26578,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26635,7 +26635,7 @@
         <v>45645</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>44312</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45937</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>45785</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45091</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45516</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45203</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45369</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45076</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44571</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>44692</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29329,7 +29329,7 @@
         <v>45880</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45964</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29443,7 +29443,7 @@
         <v>45224</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45418</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45880</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45880</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>45202</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30583,7 +30583,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30640,7 +30640,7 @@
         <v>45886</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30697,7 +30697,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45952</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45952</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45313</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45645</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>44827</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>44831</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45980</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44298</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>46020</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>46020</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>44966</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32370,7 +32370,7 @@
         <v>44433</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32427,7 +32427,7 @@
         <v>46020</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>45103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>45302</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45748</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>45313</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45313</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>44377</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44966</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>44300</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45121</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44649</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>45996</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45260</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>45996</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36110,7 +36110,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36167,7 +36167,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36224,7 +36224,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36395,7 +36395,7 @@
         <v>45369</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36452,7 +36452,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36509,7 +36509,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44750</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36623,7 +36623,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36799,7 +36799,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36856,7 +36856,7 @@
         <v>45559</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36913,7 +36913,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36970,7 +36970,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37084,7 +37084,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37146,7 +37146,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37203,7 +37203,7 @@
         <v>45896</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37260,7 +37260,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>44834</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37498,7 +37498,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37632,7 +37632,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37689,7 +37689,7 @@
         <v>44432</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37974,7 +37974,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38031,7 +38031,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38088,7 +38088,7 @@
         <v>45615</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38259,7 +38259,7 @@
         <v>45359</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38316,7 +38316,7 @@
         <v>44368</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38430,7 +38430,7 @@
         <v>44488</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38658,7 +38658,7 @@
         <v>44440</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38715,7 +38715,7 @@
         <v>46010</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38772,7 +38772,7 @@
         <v>44453</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38886,7 +38886,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>44755</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>45210</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>44953</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>44476</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>44851</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39647,7 +39647,7 @@
         <v>45365</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39704,7 +39704,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39761,7 +39761,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39818,7 +39818,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>44907</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>45723</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40103,7 +40103,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40160,7 +40160,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40274,7 +40274,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40331,7 +40331,7 @@
         <v>45155</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40388,7 +40388,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40445,7 +40445,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40502,7 +40502,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40559,7 +40559,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40673,7 +40673,7 @@
         <v>45202</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40730,7 +40730,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40787,7 +40787,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40844,7 +40844,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40901,7 +40901,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40958,7 +40958,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41015,7 +41015,7 @@
         <v>45233</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41072,7 +41072,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41129,7 +41129,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         <v>44887</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41248,7 +41248,7 @@
         <v>45230</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41305,7 +41305,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41362,7 +41362,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>44876</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45151</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45040</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45230</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>44866</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>44943</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41880,7 +41880,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41937,7 +41937,7 @@
         <v>45264</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41994,7 +41994,7 @@
         <v>45195</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42051,7 +42051,7 @@
         <v>45212</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42108,7 +42108,7 @@
         <v>45540</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42165,7 +42165,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42222,7 +42222,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42279,7 +42279,7 @@
         <v>45173</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>44935</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42393,7 +42393,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>44621</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42621,7 +42621,7 @@
         <v>44371</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42735,7 +42735,7 @@
         <v>45617</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42797,7 +42797,7 @@
         <v>45553</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42854,7 +42854,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42911,7 +42911,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42968,7 +42968,7 @@
         <v>44916</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43201,7 +43201,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43258,7 +43258,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43429,7 +43429,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43486,7 +43486,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>44831</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43942,7 +43942,7 @@
         <v>44340</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43999,7 +43999,7 @@
         <v>44476</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44170,7 +44170,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         <v>45181</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44284,7 +44284,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44620</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>45547</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44903</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>45180</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>45643</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44258</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>45071</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45310,7 +45310,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>44552</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45652,7 +45652,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45583</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45310</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>44300</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44831</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46284,7 +46284,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46398,7 +46398,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46455,7 +46455,7 @@
         <v>44369</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46683,7 +46683,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46740,7 +46740,7 @@
         <v>44274</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46797,7 +46797,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46854,7 +46854,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46911,7 +46911,7 @@
         <v>45198</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46968,7 +46968,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>44929</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47087,7 +47087,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47144,7 +47144,7 @@
         <v>45195</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47201,7 +47201,7 @@
         <v>45198</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47258,7 +47258,7 @@
         <v>45750</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47315,7 +47315,7 @@
         <v>45511</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47491,7 +47491,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47548,7 +47548,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47605,7 +47605,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47662,7 +47662,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47719,7 +47719,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47833,7 +47833,7 @@
         <v>44868</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47890,7 +47890,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47947,7 +47947,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48004,7 +48004,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48061,7 +48061,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48118,7 +48118,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48175,7 +48175,7 @@
         <v>45792</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48232,7 +48232,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48289,7 +48289,7 @@
         <v>45788</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48346,7 +48346,7 @@
         <v>45792</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48460,7 +48460,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         <v>45309</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45477</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>45575</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45930</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44916</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44997</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45937</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44596</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45236</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45062</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44417</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45457</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44252</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44477</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44508</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44258</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44571</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44274</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44367</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44552</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44516</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44293</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44428</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44488</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44508</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44302</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44505</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44350</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44305</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44403</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44412</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44453</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44692</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44601</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44694</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44649</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44853</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44840</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44258</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44306</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44834</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44379</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44309</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44830</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44368</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44340</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44326</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44343</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44487</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44512</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44558</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44594</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44821</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44749</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45443</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45359</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45217</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44513</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45630</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45054</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44599</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44944</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44930</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44911</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45376</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44830</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44634</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44855</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45405</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45357</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45197</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44655</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44993</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>44637</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>44894</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45124</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45569</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44357</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45251</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45735</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44943</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45558</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45558</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45386</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45891</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45894</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45895</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44370</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45401</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45897</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44608</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45559</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>45604</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44417</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45373</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45060</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44516</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44466</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44826</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>45917</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44935</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45785</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>44356</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>45867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45181</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45151</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>45151</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44617</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45233</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44893</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45719</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44946</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45932</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45880</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45645</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45880</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44312</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45937</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45880</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45091</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45516</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45940</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45886</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45203</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45369</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>45076</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44571</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45744</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44692</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45224</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45418</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45202</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45050</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45964</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45313</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45645</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44827</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44831</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44298</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>44966</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>44433</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45952</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45952</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45103</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45302</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>45980</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45097</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45748</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45313</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45313</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44377</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44966</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44300</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44649</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45260</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>45996</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45996</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45369</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>44750</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44432</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45896</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35570,7 +35570,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45615</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45359</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44368</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44488</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44440</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44453</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45210</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44953</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>46010</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>44476</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>44851</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45365</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>44907</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45723</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>46063.39438657407</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>46063.39278935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>46020</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>46020</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>46020</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>46063</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45155</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
         <v>46064.46731481481</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>45202</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>46064.51962962963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>45233</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39652,7 +39652,7 @@
         <v>45230</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39823,7 +39823,7 @@
         <v>44876</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>45151</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45040</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>45230</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>46071.49178240741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44866</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>44943</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40398,7 +40398,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40455,7 +40455,7 @@
         <v>46072.35206018519</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>45264</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40569,7 +40569,7 @@
         <v>45195</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         <v>46071.50341435185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40683,7 +40683,7 @@
         <v>45212</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40740,7 +40740,7 @@
         <v>45540</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40911,7 +40911,7 @@
         <v>45173</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40968,7 +40968,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41025,7 +41025,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41082,7 +41082,7 @@
         <v>44621</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41139,7 +41139,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41196,7 +41196,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41253,7 +41253,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41310,7 +41310,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>45617</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41429,7 +41429,7 @@
         <v>45553</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41600,7 +41600,7 @@
         <v>44916</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42232,7 +42232,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42289,7 +42289,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42346,7 +42346,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42403,7 +42403,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42460,7 +42460,7 @@
         <v>44831</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42517,7 +42517,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42574,7 +42574,7 @@
         <v>44340</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42631,7 +42631,7 @@
         <v>44476</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42688,7 +42688,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42745,7 +42745,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42802,7 +42802,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>45181</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>44620</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45547</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43201,7 +43201,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43258,7 +43258,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>44903</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>45180</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43429,7 +43429,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43486,7 +43486,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>45643</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44258</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>45071</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43942,7 +43942,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43999,7 +43999,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>44552</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44170,7 +44170,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44284,7 +44284,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45583</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45310</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44300</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>44831</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44369</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44274</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45198</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44929</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>45195</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>45198</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45750</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45947,7 +45947,7 @@
         <v>45511</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46123,7 +46123,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46180,7 +46180,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46237,7 +46237,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44868</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46636,7 +46636,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45792</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>45788</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>45792</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>45309</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>45477</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47263,7 +47263,7 @@
         <v>45575</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47320,7 +47320,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47491,7 +47491,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>45201</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         <v>45800</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48009,7 +48009,7 @@
         <v>45811</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>45198</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>45797</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45930</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44916</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44997</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44750</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45937</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44596</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45236</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45062</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44417</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>45457</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44252</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44306</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44477</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44508</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44790</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44258</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44571</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44274</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44367</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44552</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44516</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44585</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44293</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44365</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44428</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44488</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44508</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44866</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44302</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44505</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44350</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44305</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44403</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44412</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44453</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44692</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44601</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44694</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44649</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44853</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44840</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44258</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44306</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44834</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44379</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44309</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44830</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44377</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44368</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44340</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44326</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44343</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44487</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44512</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44558</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44594</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44821</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44749</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45443</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45359</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45217</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44513</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45630</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45054</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44599</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44363</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>44944</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44930</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44911</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45376</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>44830</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44634</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44855</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45405</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45356</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45357</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45197</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>44655</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44993</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>44637</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>44894</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45124</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45569</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>44357</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>44929</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45251</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45735</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44943</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45558</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45558</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45386</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45071</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45891</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45894</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45895</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>44370</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45401</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45897</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44608</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45559</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>45604</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44417</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45373</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45060</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44516</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44466</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44826</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>45917</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44935</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>45785</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>44356</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>44642</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>45867</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45181</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45151</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>45151</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44617</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45233</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44893</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45719</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44946</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45932</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45880</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45645</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45880</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>44312</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45937</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45880</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45091</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45516</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45940</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25438,7 +25438,7 @@
         <v>45886</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45203</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45369</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>45076</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44571</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45744</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26697,7 +26697,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>44692</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26925,7 +26925,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27039,7 +27039,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27096,7 +27096,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45224</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45418</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45202</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45050</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>45964</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45313</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45645</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44827</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44831</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44298</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>44966</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>44433</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45952</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45952</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45103</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>45302</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>45980</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30650,7 +30650,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45097</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45748</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45313</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45313</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44377</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44966</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44300</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44649</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45260</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>45996</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>45996</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45369</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>44750</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>44432</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45896</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35570,7 +35570,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35627,7 +35627,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35684,7 +35684,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>45615</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45359</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44368</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44488</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44440</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44453</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45210</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44953</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>46010</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36901,7 +36901,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36958,7 +36958,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37015,7 +37015,7 @@
         <v>44476</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>44851</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45365</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>44907</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45723</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37984,7 +37984,7 @@
         <v>46063.39438657407</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38041,7 +38041,7 @@
         <v>46063.39278935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>46020</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>46020</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38269,7 +38269,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>46020</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38383,7 +38383,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38440,7 +38440,7 @@
         <v>46063</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45155</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38668,7 +38668,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38725,7 +38725,7 @@
         <v>46064.46731481481</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>45202</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>46064.51962962963</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39077,7 +39077,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39305,7 +39305,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39362,7 +39362,7 @@
         <v>45233</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39476,7 +39476,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39590,7 +39590,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39652,7 +39652,7 @@
         <v>45230</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39823,7 +39823,7 @@
         <v>44876</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>45151</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45040</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>45230</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40227,7 +40227,7 @@
         <v>46071.49178240741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>44866</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>44943</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40398,7 +40398,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40455,7 +40455,7 @@
         <v>46072.35206018519</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40512,7 +40512,7 @@
         <v>45264</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40569,7 +40569,7 @@
         <v>45195</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         <v>46071.50341435185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40683,7 +40683,7 @@
         <v>45212</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40740,7 +40740,7 @@
         <v>45540</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40911,7 +40911,7 @@
         <v>45173</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40968,7 +40968,7 @@
         <v>44935</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41025,7 +41025,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41082,7 +41082,7 @@
         <v>44621</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41139,7 +41139,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41196,7 +41196,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41253,7 +41253,7 @@
         <v>44371</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41310,7 +41310,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41367,7 +41367,7 @@
         <v>45617</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41429,7 +41429,7 @@
         <v>45553</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41486,7 +41486,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41543,7 +41543,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41600,7 +41600,7 @@
         <v>44916</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41662,7 +41662,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42232,7 +42232,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42289,7 +42289,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42346,7 +42346,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42403,7 +42403,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42460,7 +42460,7 @@
         <v>44831</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42517,7 +42517,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42574,7 +42574,7 @@
         <v>44340</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42631,7 +42631,7 @@
         <v>44476</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42688,7 +42688,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42745,7 +42745,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42802,7 +42802,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>45181</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>44620</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45547</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43201,7 +43201,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43258,7 +43258,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43315,7 +43315,7 @@
         <v>44903</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>45180</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43429,7 +43429,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43486,7 +43486,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43543,7 +43543,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43600,7 +43600,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43657,7 +43657,7 @@
         <v>45643</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43714,7 +43714,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43771,7 +43771,7 @@
         <v>44258</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43828,7 +43828,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43885,7 +43885,7 @@
         <v>45071</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43942,7 +43942,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43999,7 +43999,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
         <v>44552</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44170,7 +44170,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44284,7 +44284,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44341,7 +44341,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45583</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>45310</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44300</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>44831</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44369</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44274</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45198</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44929</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45719,7 +45719,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>45195</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>45198</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45750</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45947,7 +45947,7 @@
         <v>45511</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46123,7 +46123,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46180,7 +46180,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46237,7 +46237,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44868</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46636,7 +46636,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45792</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>45788</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>45792</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47149,7 +47149,7 @@
         <v>45309</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47206,7 +47206,7 @@
         <v>45477</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47263,7 +47263,7 @@
         <v>45575</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47320,7 +47320,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47434,7 +47434,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47491,7 +47491,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>45201</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         <v>45800</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48009,7 +48009,7 @@
         <v>45811</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48294,7 +48294,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48351,7 +48351,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48408,7 +48408,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48465,7 +48465,7 @@
         <v>45198</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48522,7 +48522,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48579,7 +48579,7 @@
         <v>45797</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45930</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44997</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44916</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45457</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45062</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45937</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44417</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>45236</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44596</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44750</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44839</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44306</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44477</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44508</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44258</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44274</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44367</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44516</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44365</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44293</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44508</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44866</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44839</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44302</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44505</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44350</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44305</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44417</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44403</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44453</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44692</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44601</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44776</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44649</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44258</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44306</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44382</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44379</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44309</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44830</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44368</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44340</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44326</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44343</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44487</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44512</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44558</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44821</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44594</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45202</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44363</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45212</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45553</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45359</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44929</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45302</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45197</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45516</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44887</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44894</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44513</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44944</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45357</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45310</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44433</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45540</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44907</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44617</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45839</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45797</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45198</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45811</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45744</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45356</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44258</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45894</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45891</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44476</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>45895</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45895</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45897</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45833</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44993</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44834</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44916</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44827</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44417</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44516</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44369</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44340</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44953</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44581</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44357</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44300</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45615</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45785</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44755</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45867</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44776</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45630</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>45151</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44370</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45198</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45195</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44855</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45880</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45880</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45932</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44356</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44966</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44895</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44930</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45937</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44300</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44620</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45940</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44966</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>45264</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45569</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44851</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45210</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>44943</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>45233</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>44440</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45060</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44453</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44476</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44274</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45313</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45071</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45180</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45645</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45964</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45040</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44911</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45151</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45151</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44831</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44621</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44488</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44571</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45559</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45558</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45558</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45151</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44946</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45952</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45952</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45980</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45155</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>45583</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45643</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44599</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45719</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45173</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45996</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45996</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45071</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45181</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34323,7 +34323,7 @@
         <v>44312</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>44692</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34918,7 +34918,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45054</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45896</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45050</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44637</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45547</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>44831</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45103</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45376</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44655</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44876</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45195</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45198</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45124</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>46010</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>44608</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>44826</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45121</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>45723</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>46020</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>46020</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45233</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38933,7 +38933,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38990,7 +38990,7 @@
         <v>46020</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>46063</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>46063.39438657407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>46064.46731481481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>46063.39278935185</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>46064.51962962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45260</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39513,7 +39513,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39570,7 +39570,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39741,7 +39741,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39798,7 +39798,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39855,7 +39855,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39912,7 +39912,7 @@
         <v>44830</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>46072.35206018519</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>46071.49178240741</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40083,7 +40083,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40140,7 +40140,7 @@
         <v>45405</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>46071.50341435185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40311,7 +40311,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45230</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>46076.53696759259</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>46076.47548611111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41223,7 +41223,7 @@
         <v>44903</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41280,7 +41280,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41337,7 +41337,7 @@
         <v>45359</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45373</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45401</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45091</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>44649</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45604</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44377</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45203</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44831</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45418</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45224</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45559</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45617</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43803,7 +43803,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43860,7 +43860,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43917,7 +43917,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43974,7 +43974,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44207,7 +44207,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>44634</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>45313</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44549,7 +44549,7 @@
         <v>45217</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>44642</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>44935</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>44298</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45369</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45202</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45369</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45134,7 +45134,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45191,7 +45191,7 @@
         <v>45076</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45305,7 +45305,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45419,7 +45419,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45476,7 +45476,7 @@
         <v>44368</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45590,7 +45590,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>44466</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>44929</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>45062</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>45365</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>45643</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>45645</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44750</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45443</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>45251</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>45313</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45748</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45750</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45511</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44868</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>45792</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>45792</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
         <v>45788</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45201</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48009,7 +48009,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48299,7 +48299,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48356,7 +48356,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>45309</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>45477</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48527,7 +48527,7 @@
         <v>45575</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48584,7 +48584,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48641,7 +48641,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48698,7 +48698,7 @@
         <v>45800</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45965.36326388889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45392</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45701.71184027778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>45260.47730324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45723.47996527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45894.76184027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45464.38503472223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45319.64564814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44768.6502662037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45930</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45229.4496875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>45744.56789351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44613.56583333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45714.7971875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44573.654375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45212.36836805556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>45901.34576388889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>44997</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44916</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46000.56900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>46027.46710648148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44508</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45330.36855324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45810.49706018518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45457</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45820.45769675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45825.88996527778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44446.66140046297</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45901.56631944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45062</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>45842.63076388889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>45924.32104166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45937</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45313.46119212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44417</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44750.56575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>45236</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44596</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>45336.5199537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44750</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45721.63266203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45477.46034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44839</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>44306</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44477</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44725.54923611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44750</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44419.6758449074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44441.54953703703</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>44476.48311342593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44305.46362268519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44348.34064814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44508</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44714.57858796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44790</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44573.65174768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44691.62885416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44258</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44441.54540509259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44264.40030092592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44571</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44487.64269675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44274</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44367</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44516</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44613.67846064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44365</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44293</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44428</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44508</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44564</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>44572.73967592593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44866</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44839</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44508.61591435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44806.63174768518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44302</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44505</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44321.48512731482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44350</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44305</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44832.60121527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44417</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44446</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44412</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44446</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44403</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44383.43858796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44453</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44321.48224537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44497.36775462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44476.85804398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44692</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44601</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44442.58653935185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44776</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44776.44586805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44649</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44889.54108796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44501.78783564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44578.69895833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44853</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44573.65699074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44840</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44599.43431712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44480.52538194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44258</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44525.62038194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44306</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44728.66501157408</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44382</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44802.62513888889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44876.589375</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44379</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44309</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44573.67560185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44781.59453703704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44830</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44368.62356481481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44377</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44368</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44437.68137731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44769.6740162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44806.61495370371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44340</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44326</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44343</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44357.57733796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44648.67226851852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44648.67503472222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44487</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44512</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44421.56896990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44558</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44821</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44594</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44497.56990740741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45775.46091435185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44488.57824074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45734.65050925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45362.591875</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45405.66837962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45376.60981481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45202</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45772.47270833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44363</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>45212</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45772.4628125</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>45772.48673611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45230</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45385.32833333333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45772.57635416667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45097</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45553</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>45775.50196759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45702.59402777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45359</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44929</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44827.34412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45302</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>45748.42809027778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44806.63469907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45370.51100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45317.47125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45394.39236111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44866</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45420.45701388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45197</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>44428.45159722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45516</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>44861.63327546296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44887</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44894</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45476.96253472222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45309.60811342593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44513</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44903.42677083334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44944</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44596.36332175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45357</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45310</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45373.44097222222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44433</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45574.6596875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45540</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44907</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45568.57061342592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44943</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45880</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45722.65290509259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45810.67539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45825.63069444444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45378.58028935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45691.55012731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45559.48377314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>45810.67208333333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45810.67379629629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45810.67701388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44617</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45811.55931712963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45839</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45810.57994212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45797</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45198</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45812.49005787037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45559.56221064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45811</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45541.66744212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45744</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45793.3621875</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45890.55559027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45699.55243055556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45565.9112037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45889.3391550926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45356</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45818.61042824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45889.49938657408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>45817.37365740741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45817.57896990741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45889.4900462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45818.60586805556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>45358.50373842593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45817.57670138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45818.6374537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45399.6205787037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45663.58502314815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45663.59096064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44258</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45894</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45891</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45579.4525</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44476</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>45404.51903935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>45824.69983796297</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>45895</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45826.62505787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>45826.6315625</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44943.5928587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45825.40509259259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45895</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45897</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45897.49334490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45825.45028935185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45825.47179398148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45897.36733796296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>45897.56038194444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45071.53923611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>45825.45644675926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45833</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45901.34243055555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45902.63655092593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45901.70811342593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45903.54530092593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45903.54034722222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45176.63672453703</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45833.68732638889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45833.56820601852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45766.86765046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45905.41342592592</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45834.57234953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45835.6525925926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45623.5980787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45772.71413194444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44993</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44834</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44916</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45107.53695601852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44918.32068287037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45846.58597222222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44958.50300925926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44827</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44417</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44516</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44544.4646412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45845.67605324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44369</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45645.67826388889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44340</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44953</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45775.60614583334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45706.36872685186</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45851.98012731481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45851.98951388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45916.38990740741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44581</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45914.9084375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45916.67870370371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45851.97327546297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45854.27512731482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45915.47930555556</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45914.9278587963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45914.94375</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44998.45515046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>45742.67118055555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>45509.67528935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>45575.47137731482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44357</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>45645.47907407407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45530.56388888889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45385.65472222222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45915.39197916666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44300</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>44334.59101851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>44951.63021990741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45917</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45861.4362962963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45917.54449074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         <v>45917.54532407408</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
         <v>45638.8634837963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>45917.53954861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45917.54709490741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>45615</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45785</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45623.64943287037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>44349.57394675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45616.52010416667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44755</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>45923.65538194445</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45867</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45924.31892361111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>45659.58482638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44776</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>45630</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>45151</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>45874.43638888889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>45189.39472222222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>45932.49850694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44370</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>45932.39295138889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>45198</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45195</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44349.57731481481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45694.56876157408</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45687.54652777778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>45879.8837037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44855</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>45880</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>45880</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45932</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45089.72844907407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45932.46387731482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45881.52247685185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45881.58626157408</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45933.57803240741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45936.6905787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45933.36780092592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45936.61097222222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45750.5753587963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44356</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>45440.4031712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44966</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44357.5655787037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44895</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45938.66871527778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45743.70525462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>45937.61548611111</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44525.60467592593</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>45758.54153935185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44930</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45940.57497685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45940.59071759259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45937</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45503.65310185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44300</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44620</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45940.57215277778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44956.35644675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44951.46585648148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45940.56752314815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45940.56982638889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45940.49237268518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25230,7 +25230,7 @@
         <v>45940.49908564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45940</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>44966</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25406,7 +25406,7 @@
         <v>45943.60738425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>45264</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
         <v>45943.40510416667</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45569</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45943.54265046296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>44851</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45943.41034722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45524.34608796296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45210</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45072.69234953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>45943.53577546297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>45943.57349537037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>45945.39131944445</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>44943</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>45233</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26261,7 +26261,7 @@
         <v>44440</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26318,7 +26318,7 @@
         <v>45945.63540509259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45945.4416087963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45945.4562962963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45771.6444212963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45771.65230324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45947.36222222223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45167.60326388889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45947.49642361111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45951.58354166667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45764.29959490741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44904.60618055556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45407.42170138889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45467.50221064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45951.60511574074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45951.60694444444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45951.59208333334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45060</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45951.60899305555</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45744.51998842593</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44453</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45376.6869212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45714.83510416667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44476</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45954.54539351852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44274</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45957.66422453704</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45313</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45446.6490162037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45732.35451388889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45716.39700231481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45603.36643518518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45071</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44501.78688657407</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45180</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45957.654375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45772.47728009259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45107.52193287037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45960.66594907407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45960.45333333333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45959.59699074074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45960.6391087963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45960.64942129629</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45958.90396990741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45645</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45959.480625</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45964</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45040</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45964.39342592593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45964.53640046297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45257.7878587963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44911</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29282,7 +29282,7 @@
         <v>45151</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45151</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>44831</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>44621</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45965.76703703704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>44742.55943287037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44997.43748842592</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45971.3496875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44488</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44571</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44595.66928240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45559</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45974.54982638889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45558</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45558</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45973.5675</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45151</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45132.33288194444</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45974.46780092592</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44946</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45588.48296296296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45218.48347222222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         <v>45562.86854166666</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>45975.47628472222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45952</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45952</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44631.37122685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44621.67773148148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45978.57170138889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>45980</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>45063.31554398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>45980.64556712963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>45079.47261574074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>45156.47878472223</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45155</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>45558.63273148148</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>45583</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>45981.35861111111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45643</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45579.43690972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>45981.35884259259</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45981.67099537037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45981.66472222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45986.38829861111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44599</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45985.63568287037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45428.5444212963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45355.5446875</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45719</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45559.56003472222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>44835.86141203704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45988.72796296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45988.49689814815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45988.50035879629</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45008.46489583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45638.49222222222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45992.40696759259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>45992.61725694445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45992.61871527778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44578.70068287037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44572.67575231481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44572.73582175926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45992.61172453704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45588.46842592592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45992.61476851852</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45173</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45992.61982638889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45992.4522337963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45218.48113425926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45631.60872685185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45992.61622685185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45994.72671296296</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45994.69363425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45994.70210648148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>44552.35958333333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45994.7470949074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45994.74569444444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45579.44217592593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45996</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45230.6325462963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45996</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>44648.66422453704</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45995.67863425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45996.34907407407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45071</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45181</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45999.38017361111</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45999.38141203704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34323,7 +34323,7 @@
         <v>44312</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>46000.48063657407</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45999.376875</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45327.46177083333</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>44692</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34633,7 +34633,7 @@
         <v>44629.68885416666</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34690,7 +34690,7 @@
         <v>45176.6408912037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34747,7 +34747,7 @@
         <v>45999.5106712963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45999.51137731481</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>45663.57771990741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34918,7 +34918,7 @@
         <v>45999.63880787037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
         <v>46041.66438657408</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45558.58530092592</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45054</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>46044.44195601852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45896</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45050</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45098.37615740741</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>46002.58857638889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44637</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>46002.59131944444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46044.44236111111</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>46002.59903935185</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45547</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44592.59158564815</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>46044.44215277778</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>44831</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45098.53766203704</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>45098.54193287037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>46003.60458333333</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45215.44563657408</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>45103</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
         <v>45688.57997685186</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>46003.59416666667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45090.4809375</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44698.75375</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45090.56047453704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>46006.47965277778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>46003.58741898148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45376</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>46049.59730324074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36705,7 +36705,7 @@
         <v>45645.47540509259</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>44615.50123842592</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>46007.58696759259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44655</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45637.49137731481</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45460.59233796296</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>45693.55208333334</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44876</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>45698.59017361111</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>45195</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45198</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44676.46715277778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45124</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45258.30628472222</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>46010</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>46055.62881944444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>46013.26229166667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>46056.58239583333</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>44608</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>44826</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45121</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44704.71900462963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44356.34621527778</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>45307.49578703703</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>46058.49614583333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>46058.68056712963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>46058.68436342593</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>45723</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44706.56496527778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45758.5375462963</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45415.4722800926</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>46020</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38534,7 +38534,7 @@
         <v>45257.78938657408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38591,7 +38591,7 @@
         <v>45744.52523148148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38648,7 +38648,7 @@
         <v>46020.52408564815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38705,7 +38705,7 @@
         <v>46020</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38762,7 +38762,7 @@
         <v>45727.62487268518</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45233</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>46059.53685185185</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38933,7 +38933,7 @@
         <v>46020.70125</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38990,7 +38990,7 @@
         <v>46020</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>46063</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39104,7 +39104,7 @@
         <v>46063.39438657407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>46064.46731481481</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>46063.39278935185</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39280,7 +39280,7 @@
         <v>46064.51962962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>44889.48150462963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45260</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45310.63673611111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39513,7 +39513,7 @@
         <v>44442.64697916667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39570,7 +39570,7 @@
         <v>44750.6046875</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>44496.48324074074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         <v>44967.36393518518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39741,7 +39741,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39798,7 +39798,7 @@
         <v>44907.86938657407</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39855,7 +39855,7 @@
         <v>46051.44825231482</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39912,7 +39912,7 @@
         <v>44830</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>46072.35206018519</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40026,7 +40026,7 @@
         <v>46071.49178240741</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40083,7 +40083,7 @@
         <v>46030.4515625</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40140,7 +40140,7 @@
         <v>45405</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>46071.50341435185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>44495.42215277778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40311,7 +40311,7 @@
         <v>45399.66480324074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>45520.61393518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>45335.3642824074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40482,7 +40482,7 @@
         <v>45574.65747685185</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45230</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>45775.47633101852</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>44889.47790509259</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>46076.53696759259</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45772.57297453703</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45558.5702662037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45673.34253472222</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>46076.47548611111</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45258.56780092593</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45218.46844907408</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45685.63891203704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>46036.45587962963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41223,7 +41223,7 @@
         <v>44903</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41280,7 +41280,7 @@
         <v>46036.46113425926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41337,7 +41337,7 @@
         <v>45359</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>44845.42538194444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45261.38467592592</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>44648.65728009259</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>44861.65153935185</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45572.61899305556</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45373</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44341.39423611111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44874.59923611111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44997.43135416666</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44385.61822916667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45401</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45091</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45386.44940972222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>44901.46361111111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>44649</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>45604</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44964.75292824074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>44887.58810185185</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42420,7 +42420,7 @@
         <v>44377</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44914.61563657408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45007.59076388889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45007.61644675926</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45433.62548611111</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45628.65630787037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45203</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956.50561342593</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44831</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45418</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45376.61655092592</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45224</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45111.54543981481</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45559</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>44971.56972222222</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>44977.39880787037</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45649.6287962963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>44958.43335648148</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45617</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>45628.6622337963</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>45405.67314814815</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>45636.61945601852</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>44956.51046296296</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43803,7 +43803,7 @@
         <v>45655.93005787037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43860,7 +43860,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43917,7 +43917,7 @@
         <v>45603.36789351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43974,7 +43974,7 @@
         <v>45422.39239583333</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44031,7 +44031,7 @@
         <v>45385.31694444444</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>44907.40200231481</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45621.56410879629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44207,7 +44207,7 @@
         <v>45643.69276620371</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44264,7 +44264,7 @@
         <v>45632.44810185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45672.58885416666</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>44634</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         <v>45664.53425925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44492,7 +44492,7 @@
         <v>45313</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44549,7 +44549,7 @@
         <v>45217</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>44642</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>44935</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45771.64229166666</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>44298</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45035.55924768518</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45369</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45202</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45369</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45520.35515046296</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45134,7 +45134,7 @@
         <v>45596.55809027778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45191,7 +45191,7 @@
         <v>45076</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>44984.4656712963</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45305,7 +45305,7 @@
         <v>45243.39946759259</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45090.74939814815</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45419,7 +45419,7 @@
         <v>45376.56670138889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45476,7 +45476,7 @@
         <v>44368</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45533,7 +45533,7 @@
         <v>45531.38659722222</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45590,7 +45590,7 @@
         <v>45055.37140046297</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>44466</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45267.45762731481</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>44929</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45559.7225</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45712.64800925926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>45062</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>45365</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>45643</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>45029.43778935185</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46165,7 +46165,7 @@
         <v>45008.48313657408</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46222,7 +46222,7 @@
         <v>45645</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46279,7 +46279,7 @@
         <v>44750</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46336,7 +46336,7 @@
         <v>45358.38795138889</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46393,7 +46393,7 @@
         <v>45645.68443287037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46450,7 +46450,7 @@
         <v>45443</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46512,7 +46512,7 @@
         <v>45251</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46574,7 +46574,7 @@
         <v>45313</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46631,7 +46631,7 @@
         <v>45748</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46693,7 +46693,7 @@
         <v>45750</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46750,7 +46750,7 @@
         <v>45782.44706018519</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46807,7 +46807,7 @@
         <v>45782.43984953704</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46864,7 +46864,7 @@
         <v>45783.43237268519</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46921,7 +46921,7 @@
         <v>45783.43375</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>45783.43486111111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         <v>45511</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47097,7 +47097,7 @@
         <v>45784.56877314814</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47154,7 +47154,7 @@
         <v>45785.64512731481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47211,7 +47211,7 @@
         <v>45043.56636574074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47268,7 +47268,7 @@
         <v>45785.36883101852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47325,7 +47325,7 @@
         <v>44868</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47382,7 +47382,7 @@
         <v>45791.45641203703</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>45792</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>45792</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>45723.49395833333</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>45792.63148148148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>45792.44034722223</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
         <v>45788</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         <v>45715.39475694444</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45714.78236111111</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45737.39055555555</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45201</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48009,7 +48009,7 @@
         <v>45530.45415509259</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         <v>45684.49913194445</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48123,7 +48123,7 @@
         <v>45565.32887731482</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48180,7 +48180,7 @@
         <v>45363.7016087963</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48237,7 +48237,7 @@
         <v>45798.41679398148</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48299,7 +48299,7 @@
         <v>45532.43239583333</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48356,7 +48356,7 @@
         <v>45798.64138888889</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48413,7 +48413,7 @@
         <v>45309</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48470,7 +48470,7 @@
         <v>45477</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48527,7 +48527,7 @@
         <v>45575</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48584,7 +48584,7 @@
         <v>45804.59189814814</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48641,7 +48641,7 @@
         <v>45804.59358796296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48698,7 +48698,7 @@
         <v>45800</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
